--- a/Data/Airline_income.xlsx
+++ b/Data/Airline_income.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Ticker</t>
   </si>
@@ -45,24 +45,9 @@
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>Selling, General &amp; Admin</t>
-  </si>
-  <si>
-    <t>Other Operating Expenses</t>
-  </si>
-  <si>
     <t>Operating Expenses</t>
   </si>
   <si>
-    <t>Other Expense / Income</t>
-  </si>
-  <si>
-    <t>Pretax Income</t>
-  </si>
-  <si>
-    <t>Income Tax</t>
-  </si>
-  <si>
     <t>Net Income</t>
   </si>
   <si>
@@ -94,6 +79,9 @@
   </si>
   <si>
     <t>Operating Income (Loss)</t>
+  </si>
+  <si>
+    <t>Pretax Income (Loss)</t>
   </si>
 </sst>
 </file>
@@ -150,8 +138,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -162,9 +154,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -505,15 +501,12 @@
     <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -544,34 +537,22 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>44285</v>
@@ -580,7 +561,7 @@
         <v>2021</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>44300</v>
@@ -598,36 +579,24 @@
         <v>1094000000</v>
       </c>
       <c r="J2" s="1">
-        <v>2202000000</v>
+        <v>2492000000</v>
       </c>
       <c r="K2" s="1">
-        <v>290000000</v>
+        <v>-1398000000</v>
       </c>
       <c r="L2" s="1">
-        <v>2492000000</v>
+        <v>361000000</v>
       </c>
       <c r="M2" s="1">
-        <v>-1398000000</v>
+        <v>-1515000000</v>
       </c>
       <c r="N2" s="1">
-        <v>361000000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-244000000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1515000000</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>-338000000</v>
-      </c>
-      <c r="R2" s="1">
         <v>-1177000000</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>44195</v>
@@ -636,7 +605,7 @@
         <v>2020</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>44209</v>
@@ -654,36 +623,24 @@
         <v>2065000000</v>
       </c>
       <c r="J3" s="1">
-        <v>1940000000</v>
+        <v>2923000000</v>
       </c>
       <c r="K3" s="1">
-        <v>983000000</v>
+        <v>-858000000</v>
       </c>
       <c r="L3" s="1">
-        <v>2923000000</v>
+        <v>365000000</v>
       </c>
       <c r="M3" s="1">
-        <v>-858000000</v>
+        <v>-1108000000</v>
       </c>
       <c r="N3" s="1">
-        <v>365000000</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-115000000</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-1108000000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-353000000</v>
-      </c>
-      <c r="R3" s="1">
         <v>-755000000</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>44103</v>
@@ -692,7 +649,7 @@
         <v>2020</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>44122</v>
@@ -710,36 +667,24 @@
         <v>1432000000</v>
       </c>
       <c r="J4" s="1">
-        <v>1956000000</v>
+        <v>7818000000</v>
       </c>
       <c r="K4" s="1">
-        <v>5862000000</v>
+        <v>-6386000000</v>
       </c>
       <c r="L4" s="1">
-        <v>7818000000</v>
+        <v>291000000</v>
       </c>
       <c r="M4" s="1">
-        <v>-6386000000</v>
+        <v>-6859000000</v>
       </c>
       <c r="N4" s="1">
-        <v>291000000</v>
-      </c>
-      <c r="O4" s="1">
-        <v>182000000</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-6859000000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-1480000000</v>
-      </c>
-      <c r="R4" s="1">
         <v>-5379000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>44011</v>
@@ -748,7 +693,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>44026</v>
@@ -766,36 +711,24 @@
         <v>130000000</v>
       </c>
       <c r="J5" s="1">
-        <v>2086000000</v>
+        <v>4945000000</v>
       </c>
       <c r="K5" s="1">
-        <v>2859000000</v>
+        <v>-4815000000</v>
       </c>
       <c r="L5" s="1">
-        <v>4945000000</v>
+        <v>194000000</v>
       </c>
       <c r="M5" s="1">
-        <v>-4815000000</v>
+        <v>-7014000000</v>
       </c>
       <c r="N5" s="1">
-        <v>194000000</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2005000000</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-7014000000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>-1297000000</v>
-      </c>
-      <c r="R5" s="1">
         <v>-5717000000</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>44285</v>
@@ -804,7 +737,7 @@
         <v>2021</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>44307</v>
@@ -822,36 +755,24 @@
         <v>1097000000</v>
       </c>
       <c r="J6" s="1">
-        <v>1571000000</v>
+        <v>898000000</v>
       </c>
       <c r="K6" s="1">
-        <v>-673000000</v>
+        <v>199000000</v>
       </c>
       <c r="L6" s="1">
-        <v>898000000</v>
+        <v>114000000</v>
       </c>
       <c r="M6" s="1">
-        <v>199000000</v>
+        <v>146000000</v>
       </c>
       <c r="N6" s="1">
-        <v>114000000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>-61000000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>146000000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>30000000</v>
-      </c>
-      <c r="R6" s="1">
         <v>116000000</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>44195</v>
@@ -860,7 +781,7 @@
         <v>2020</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>44223</v>
@@ -878,36 +799,24 @@
         <v>1200000000</v>
       </c>
       <c r="J7" s="1">
-        <v>1566000000</v>
+        <v>2368000000</v>
       </c>
       <c r="K7" s="1">
-        <v>802000000</v>
+        <v>-1168000000</v>
       </c>
       <c r="L7" s="1">
-        <v>2368000000</v>
+        <v>114000000</v>
       </c>
       <c r="M7" s="1">
-        <v>-1168000000</v>
+        <v>-1331000000</v>
       </c>
       <c r="N7" s="1">
-        <v>114000000</v>
-      </c>
-      <c r="O7" s="1">
-        <v>49000000</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-1331000000</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>-423000000</v>
-      </c>
-      <c r="R7" s="1">
         <v>-908000000</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>44103</v>
@@ -916,7 +825,7 @@
         <v>2020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>44126</v>
@@ -934,36 +843,24 @@
         <v>921000000</v>
       </c>
       <c r="J8" s="1">
-        <v>1678000000</v>
+        <v>2332000000</v>
       </c>
       <c r="K8" s="1">
-        <v>654000000</v>
+        <v>-1411000000</v>
       </c>
       <c r="L8" s="1">
-        <v>2332000000</v>
+        <v>111000000</v>
       </c>
       <c r="M8" s="1">
-        <v>-1411000000</v>
+        <v>-1542000000</v>
       </c>
       <c r="N8" s="1">
-        <v>111000000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>20000000</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-1542000000</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>-385000000</v>
-      </c>
-      <c r="R8" s="1">
         <v>-1157000000</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>44011</v>
@@ -972,7 +869,7 @@
         <v>2020</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>44035</v>
@@ -990,36 +887,24 @@
         <v>336000000</v>
       </c>
       <c r="J9" s="1">
-        <v>930000000</v>
+        <v>1463000000</v>
       </c>
       <c r="K9" s="1">
-        <v>533000000</v>
+        <v>-1127000000</v>
       </c>
       <c r="L9" s="1">
-        <v>1463000000</v>
+        <v>96000000</v>
       </c>
       <c r="M9" s="1">
-        <v>-1127000000</v>
+        <v>-1239000000</v>
       </c>
       <c r="N9" s="1">
-        <v>96000000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>16000000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-1239000000</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>-324000000</v>
-      </c>
-      <c r="R9" s="1">
         <v>-915000000</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>44285</v>
@@ -1028,7 +913,7 @@
         <v>2021</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>44305</v>
@@ -1046,36 +931,24 @@
         <v>1048000000</v>
       </c>
       <c r="J10" s="1">
-        <v>2309000000</v>
+        <v>2429000000</v>
       </c>
       <c r="K10" s="1">
-        <v>120000000</v>
+        <v>-1381000000</v>
       </c>
       <c r="L10" s="1">
-        <v>2429000000</v>
+        <v>353000000</v>
       </c>
       <c r="M10" s="1">
-        <v>-1381000000</v>
+        <v>-1751000000</v>
       </c>
       <c r="N10" s="1">
-        <v>353000000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>17000000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-1751000000</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>-394000000</v>
-      </c>
-      <c r="R10" s="1">
         <v>-1357000000</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>44195</v>
@@ -1084,7 +957,7 @@
         <v>2020</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2">
         <v>44216</v>
@@ -1102,36 +975,24 @@
         <v>1419000000</v>
       </c>
       <c r="J11" s="1">
-        <v>2248000000</v>
+        <v>3554000000</v>
       </c>
       <c r="K11" s="1">
-        <v>1306000000</v>
+        <v>-2135000000</v>
       </c>
       <c r="L11" s="1">
-        <v>3554000000</v>
+        <v>351000000</v>
       </c>
       <c r="M11" s="1">
-        <v>-2135000000</v>
+        <v>-2373000000</v>
       </c>
       <c r="N11" s="1">
-        <v>351000000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-113000000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-2373000000</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-476000000</v>
-      </c>
-      <c r="R11" s="1">
         <v>-1897000000</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>44103</v>
@@ -1140,7 +1001,7 @@
         <v>2020</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
         <v>44118</v>
@@ -1158,36 +1019,24 @@
         <v>891000000</v>
       </c>
       <c r="J12" s="1">
-        <v>2282000000</v>
+        <v>2506000000</v>
       </c>
       <c r="K12" s="1">
-        <v>224000000</v>
+        <v>-1615000000</v>
       </c>
       <c r="L12" s="1">
-        <v>2506000000</v>
+        <v>345000000</v>
       </c>
       <c r="M12" s="1">
-        <v>-1615000000</v>
+        <v>-2332000000</v>
       </c>
       <c r="N12" s="1">
-        <v>345000000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>372000000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-2332000000</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>-491000000</v>
-      </c>
-      <c r="R12" s="1">
         <v>-1841000000</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>44011</v>
@@ -1196,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>44033</v>
@@ -1214,30 +1063,18 @@
         <v>261000000</v>
       </c>
       <c r="J13" s="1">
-        <v>2201000000</v>
+        <v>1898000000</v>
       </c>
       <c r="K13" s="1">
-        <v>-303000000</v>
+        <v>-1637000000</v>
       </c>
       <c r="L13" s="1">
-        <v>1898000000</v>
+        <v>196000000</v>
       </c>
       <c r="M13" s="1">
-        <v>-1637000000</v>
+        <v>-2003000000</v>
       </c>
       <c r="N13" s="1">
-        <v>196000000</v>
-      </c>
-      <c r="O13" s="1">
-        <v>170000000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-2003000000</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>-376000000</v>
-      </c>
-      <c r="R13" s="1">
         <v>-1627000000</v>
       </c>
     </row>
